--- a/static/userInfoTemplate.xlsx
+++ b/static/userInfoTemplate.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rxdb\rxdb-demo(electron+levelDB)\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DDEEC2-2A0C-41AE-8C57-4718DA8BFBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B493102-4A65-4C4D-969C-6BD653DEDE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="345" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="second" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,39 +47,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马六</t>
+    <t>身份证号（必填）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄（18~80）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别（男，女）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,16 +78,40 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,12 +119,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -405,16 +425,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6509519-2C57-4CAA-8957-B1D593329C30}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="A2:E4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="28.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,123 +454,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>456</v>
-      </c>
-    </row>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6509519-2C57-4CAA-8957-B1D593329C30}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>741</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{A249A672-8586-4460-82F4-4A1FFC13B8CD}">
+      <formula1>18</formula1>
+      <formula2>80</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{A5A712B3-0F87-4710-88A9-C5E86A2CCF47}">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{3C5677D9-B202-4C98-A38A-2EDD6E95AD13}">
+      <formula1>0</formula1>
+      <formula2>18</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
